--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_5.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_24</t>
+          <t>model_2_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1901721149042273</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03309823144230117</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.283248396718494</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8199195382066036</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8962408304214478</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G2" t="n">
-        <v>1.902051329612732</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H2" t="n">
-        <v>3.909112691879272</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I2" t="n">
-        <v>2.846549510955811</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_23</t>
+          <t>model_2_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1908567441751802</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03432757576240886</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.276614136168333</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8183096567037105</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8954830765724182</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G3" t="n">
-        <v>1.904314637184143</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H3" t="n">
-        <v>3.901213884353638</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I3" t="n">
-        <v>2.84403133392334</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_22</t>
+          <t>model_2_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1927135673314779</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03402782306553731</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.265020911740996</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.813969983232953</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8934282660484314</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G4" t="n">
-        <v>1.903762578964233</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H4" t="n">
-        <v>3.887410879135132</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I4" t="n">
-        <v>2.837243795394897</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_21</t>
+          <t>model_2_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1944150750462039</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03380028668603297</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.254295181701419</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8099864336217302</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8915451169013977</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G5" t="n">
-        <v>1.903343677520752</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H5" t="n">
-        <v>3.874640464782715</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I5" t="n">
-        <v>2.831012964248657</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_20</t>
+          <t>model_2_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1957657296504527</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03377626766321096</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.24546194249038</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8068080985055848</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8900502920150757</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G6" t="n">
-        <v>1.903299570083618</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H6" t="n">
-        <v>3.864123344421387</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I6" t="n">
-        <v>2.826041698455811</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_19</t>
+          <t>model_2_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1961597287371275</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03408502574600791</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.242356024233499</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8058880333762477</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8896142244338989</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G7" t="n">
-        <v>1.903868198394775</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H7" t="n">
-        <v>3.860425472259521</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I7" t="n">
-        <v>2.824602603912354</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_18</t>
+          <t>model_2_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1975233423789452</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03482555004564158</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.232159543267423</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8026948197010275</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8881052136421204</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>1.905231475830078</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H8" t="n">
-        <v>3.84828519821167</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I8" t="n">
-        <v>2.819608211517334</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_17</t>
+          <t>model_2_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1993795295071846</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.035508397893528</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.218835421267628</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7983491253806936</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8860508799552917</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>1.906488656997681</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H9" t="n">
-        <v>3.832421064376831</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I9" t="n">
-        <v>2.812810897827148</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_16</t>
+          <t>model_2_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2012160472658965</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03508997544897374</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.207523461563917</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7940353388209147</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8840184211730957</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>1.905718326568604</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H10" t="n">
-        <v>3.818953037261963</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I10" t="n">
-        <v>2.806063652038574</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_15</t>
+          <t>model_2_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2038995126547877</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03354641350912946</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.19262220280316</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7877351859706279</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8810486197471619</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>1.902876377105713</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H11" t="n">
-        <v>3.80121111869812</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I11" t="n">
-        <v>2.796209573745728</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_14</t>
+          <t>model_2_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2047929578994379</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03600966649344928</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.182322648132898</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7855808696083173</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8800598382949829</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>1.907411575317383</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H12" t="n">
-        <v>3.788948059082031</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I12" t="n">
-        <v>2.792840242385864</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_12</t>
+          <t>model_2_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2050672081162954</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05832256345592945</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.140758255179527</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7845967185769291</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8797564506530762</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>1.948492050170898</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H13" t="n">
-        <v>3.739460468292236</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I13" t="n">
-        <v>2.791300773620605</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_11</t>
+          <t>model_2_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2068440467509298</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06230183297023717</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.122145685265852</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7804092227068962</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8777899146080017</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95581841468811</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H14" t="n">
-        <v>3.717300176620483</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I14" t="n">
-        <v>2.784751176834106</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_13</t>
+          <t>model_2_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2071243662943396</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04411354568559234</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.152745826303508</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7800360779202173</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.877479612827301</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>1.922331690788269</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H15" t="n">
-        <v>3.753733158111572</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I15" t="n">
-        <v>2.784167528152466</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_10</t>
+          <t>model_2_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.224981297892818</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05558982446930694</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.015595252350835</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.738058226008818</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8577173948287964</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G16" t="n">
-        <v>1.943460941314697</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H16" t="n">
-        <v>3.590438604354858</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I16" t="n">
-        <v>2.718509674072266</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_9</t>
+          <t>model_2_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2339594087701263</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04872903736871748</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.968035023382487</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7167453684698719</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8477811813354492</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G17" t="n">
-        <v>1.930829405784607</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H17" t="n">
-        <v>3.533812284469604</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I17" t="n">
-        <v>2.685173988342285</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_2</t>
+          <t>model_2_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2498845298214694</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2051846749619197</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.413405102250754</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.615565083359523</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8301568031311035</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G18" t="n">
-        <v>2.218881845474243</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H18" t="n">
-        <v>2.873456716537476</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I18" t="n">
-        <v>2.526917457580566</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_8</t>
+          <t>model_2_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2515759215525313</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.03882935307232249</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.869645947643279</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6753322432488185</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8282849192619324</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G19" t="n">
-        <v>1.91260290145874</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H19" t="n">
-        <v>3.416667699813843</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I19" t="n">
-        <v>2.620399475097656</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_3</t>
+          <t>model_2_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2611427330806705</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1450528632165009</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.494307141539897</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6070733732063651</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8176972270011902</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G20" t="n">
-        <v>2.108172416687012</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H20" t="n">
-        <v>2.969780683517456</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I20" t="n">
-        <v>2.513635158538818</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_7</t>
+          <t>model_2_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2711954589151325</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05205129403944597</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.717489107504008</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6290661974591174</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.806571900844574</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G21" t="n">
-        <v>1.936946034431458</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H21" t="n">
-        <v>3.235506296157837</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I21" t="n">
-        <v>2.548034191131592</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_6</t>
+          <t>model_2_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2853127412165637</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.07008633618465332</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.590733526345416</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5948989818899606</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F22" t="n">
-        <v>0.790948212146759</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G22" t="n">
-        <v>1.970150470733643</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H22" t="n">
-        <v>3.084588289260864</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I22" t="n">
-        <v>2.494592905044556</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_4</t>
+          <t>model_2_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2949238529502142</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1589797396381458</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.350837286280586</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5643584003041884</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7803115844726562</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G23" t="n">
-        <v>2.133813381195068</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H23" t="n">
-        <v>2.798962116241455</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I23" t="n">
-        <v>2.446824312210083</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_5</t>
+          <t>model_2_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3124343097132106</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07839734956192479</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.382562607395213</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5255072088972215</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7609326243400574</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.985452055931091</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H24" t="n">
-        <v>2.836735248565674</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I24" t="n">
-        <v>2.386056900024414</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_1</t>
+          <t>model_2_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6049581959722146</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7301926176311906</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6081295441973786</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2558007403826219</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4371948540210724</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4967460632324219</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H25" t="n">
-        <v>1.914676666259766</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I25" t="n">
-        <v>1.164007663726807</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_5_0</t>
+          <t>model_2_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7541280803296868</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.817393729289442</v>
+        <v>-0.8325171248060477</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4173408530422172</v>
+        <v>0.04054228265915827</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6774853817597062</v>
+        <v>-0.006708787800333571</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2721077501773834</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3361988663673401</v>
+        <v>1.248383045196533</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6937277317047119</v>
+        <v>1.570474863052368</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5044474601745605</v>
+        <v>1.399955749511719</v>
       </c>
     </row>
   </sheetData>
